--- a/biology/Médecine/Appareil_locomoteur_humain/Appareil_locomoteur_humain.xlsx
+++ b/biology/Médecine/Appareil_locomoteur_humain/Appareil_locomoteur_humain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'appareil locomoteur humain (ou appareil musculo-squelettique) est le système d'organes qui confère à l'humain l'aptitude à se mouvoir physiquement. Il se compose du système musculaire, du squelette osseux et cartilagineux ainsi que les éléments rattachés (articulations, ligaments, tendons...).
 Comme son nom l'indique, l'ensemble formé par tous ces éléments permet la locomotion (marche, course, nage), mais il a d'autres fonctions, comme la préhension, la communication verbale (phonation) et non verbale (mimique, salut).
@@ -517,7 +529,9 @@
           <t>Os</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les os sont très importants pour les efforts physiques.
@@ -549,7 +563,9 @@
           <t>Muscles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les muscles sont très importants pour tous types de sports.
